--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2498,10 +2510,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2545,28 +2557,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2591,28 +2603,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2700,10 +2712,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2747,28 +2759,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2793,28 +2805,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2902,10 +2914,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2949,28 +2961,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2995,28 +3007,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3116,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3151,28 +3163,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3209,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3306,10 +3318,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3353,28 +3365,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3399,28 +3411,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3508,10 +3520,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3555,28 +3567,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3601,28 +3613,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3780,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3815,28 +3827,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3873,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3970,10 +3982,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4017,28 +4029,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4063,28 +4075,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4576,10 +4588,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4623,28 +4635,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4669,28 +4681,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4819,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4866,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4912,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5050,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5085,28 +5097,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5143,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5240,10 +5252,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5287,28 +5299,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5333,28 +5345,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5442,10 +5454,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5489,28 +5501,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5535,28 +5547,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5702,10 +5714,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5749,28 +5761,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5795,28 +5807,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5904,10 +5916,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5951,28 +5963,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5997,28 +6009,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6106,10 +6118,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6153,28 +6165,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6199,28 +6211,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6337,10 +6349,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6384,28 +6396,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6430,28 +6442,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6539,10 +6551,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6586,28 +6598,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6632,28 +6644,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6712,10 +6724,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6759,28 +6771,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6805,28 +6817,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6885,10 +6897,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6932,28 +6944,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6978,28 +6990,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7058,10 +7070,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7105,28 +7117,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7151,28 +7163,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7260,10 +7272,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7307,28 +7319,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7353,28 +7365,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7462,10 +7474,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7509,28 +7521,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7555,28 +7567,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7676,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7723,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7769,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8039,10 +8051,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8086,28 +8098,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8132,28 +8144,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8212,10 +8224,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8259,28 +8271,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8305,28 +8317,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8414,10 +8426,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8461,28 +8473,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8507,28 +8519,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8587,10 +8599,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8634,28 +8646,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8680,28 +8692,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8818,10 +8830,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8865,28 +8877,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8911,28 +8923,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8991,10 +9003,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9038,28 +9050,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9084,28 +9096,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9164,10 +9176,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9211,28 +9223,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9257,28 +9269,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9337,10 +9349,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9384,28 +9396,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9430,28 +9442,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9522,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9557,28 +9569,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9615,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9695,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
